--- a/Employee.xlsx
+++ b/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\SoftwareProjectKhim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B4963E-3D23-41C2-9C44-27E5CE4A9387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4927C9-4E80-466E-AF8A-228CD75E7F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D7DB6404-B1BC-40CA-8CE9-C943A242979C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,24 @@
   </si>
   <si>
     <t>tel.</t>
+  </si>
+  <si>
+    <t>Job Position</t>
+  </si>
+  <si>
+    <t>012-345-6789</t>
+  </si>
+  <si>
+    <t>Vichai</t>
+  </si>
+  <si>
+    <t>Kunpra123</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
   </si>
 </sst>
 </file>
@@ -422,15 +440,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395E0E1F-6E01-48D0-87E2-C16E5D94CC7F}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -446,8 +467,31 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
